--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1594260.392694548</v>
+        <v>1596198.615699284</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5688631.360865445</v>
+        <v>5741644.353391612</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>19.88180868221617</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -744,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
-        <v>75.24236401881102</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -801,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.10634673358873</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>178.157313031983</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>44.87778971584247</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1175,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>118.0728405592477</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1233,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>114.6969565630368</v>
+        <v>151.27808017072</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>169.0708280266249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1461,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>64.33804635206413</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,19 +1499,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>120.0500723064956</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>162.6080338315131</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1850,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="18">
@@ -1923,13 +1925,13 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -1977,19 +1979,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>27.44407725673862</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2041,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>241.0142888776591</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>203.3816115706753</v>
       </c>
       <c r="W21" t="n">
-        <v>123.3682322779029</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,17 +2317,17 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,22 +2368,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>70.34400780127524</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>121.9333552767668</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2460,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>16.53524424398009</v>
       </c>
     </row>
     <row r="25">
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2643,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>125.7440854491578</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>24.74894597221386</v>
       </c>
     </row>
     <row r="28">
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>55.77504579759023</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2937,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>10.40493801491967</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,11 +3028,11 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>212.285385643442</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>120.2060159584285</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,22 +3116,22 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>92.40361448301438</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3168,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>177.62644325504</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3463,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="39">
@@ -3585,10 +3587,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>17.79565264383165</v>
+        <v>84.8410341333234</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,10 +3635,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3703,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3743,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3785,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>181.0201173812374</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>81.13095251577728</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>142.0523914963076</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3916,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>31.15099944008764</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,28 +4058,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>31.16010504236965</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>32.10391917100721</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>811.9797623848946</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="C2" t="n">
-        <v>811.9797623848946</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="D2" t="n">
-        <v>604.3859801240053</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="E2" t="n">
-        <v>604.3859801240053</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="F2" t="n">
-        <v>396.792197863116</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>189.1984156022267</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T2" t="n">
-        <v>811.9797623848946</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>811.9797623848946</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V2" t="n">
-        <v>811.9797623848946</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="W2" t="n">
-        <v>811.9797623848946</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="X2" t="n">
-        <v>811.9797623848946</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="Y2" t="n">
-        <v>811.9797623848946</v>
+        <v>139.9144214012476</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345.2979091154422</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="C3" t="n">
-        <v>345.2979091154422</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>345.2979091154422</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="E3" t="n">
-        <v>345.2979091154422</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>345.2979091154422</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>206.5670836980577</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>93.19794810563705</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>626.8294255367553</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>809.472903150106</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>345.2979091154422</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>345.2979091154422</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>345.2979091154422</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>345.2979091154422</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>345.2979091154422</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>345.2979091154422</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>110.7436296931158</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="R4" t="n">
-        <v>110.7436296931158</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="S4" t="n">
-        <v>110.7436296931158</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T4" t="n">
-        <v>110.7436296931158</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
-        <v>110.7436296931158</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>110.7436296931158</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>110.7436296931158</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>110.7436296931158</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.4775954922324</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C5" t="n">
-        <v>614.4775954922324</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>443.6989813239244</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>443.6989813239244</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F5" t="n">
-        <v>236.1051990630351</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>822.0713777531216</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>720.9018483060073</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>571.967438644756</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>412.7299836393005</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>266.1954256661855</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>752.1869855945927</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>453.0030327087026</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="C8" t="n">
-        <v>453.0030327087026</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="D8" t="n">
-        <v>453.0030327087026</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="E8" t="n">
-        <v>453.0030327087026</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="F8" t="n">
-        <v>245.4092504478133</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
-        <v>37.81546818692397</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>265.9510956226784</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>660.5968149695918</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>660.5968149695918</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>660.5968149695918</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>660.5968149695918</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>660.5968149695918</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W8" t="n">
-        <v>660.5968149695918</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X8" t="n">
-        <v>453.0030327087026</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="Y8" t="n">
-        <v>453.0030327087026</v>
+        <v>482.2773291604919</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>547.4845037566762</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>339.8907214957869</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>132.2969392348976</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W9" t="n">
-        <v>16.44142755506243</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>16.44142755506243</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>651.2927635848137</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>443.6989813239244</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>84.26906871835831</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
-        <v>423.3667595428576</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3667595428576</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>137.7041268545529</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>16.44142755506243</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W12" t="n">
-        <v>16.44142755506243</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>802.5825927271064</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V17" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W17" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X17" t="n">
-        <v>802.5825927271064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y17" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
         <v>19.28114311021272</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="19">
@@ -5689,31 +5691,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W21" t="n">
-        <v>376.0670529769968</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X21" t="n">
-        <v>168.215552771464</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5932,22 +5934,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>731.528039392485</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U23" t="n">
-        <v>506.1786963984129</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X23" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>142.4461484402802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>142.4461484402802</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6075,13 +6077,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
         <v>894.6625969973069</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X24" t="n">
-        <v>518.4217842253022</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y24" t="n">
-        <v>310.6614854603483</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
         <v>19.28114311021272</v>
@@ -6306,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W27" t="n">
-        <v>373.6672012888606</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X27" t="n">
-        <v>165.8157010833278</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="Y27" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6400,19 +6402,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>487.2836868729568</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>430.9452567743808</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V30" t="n">
-        <v>430.9452567743808</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W30" t="n">
-        <v>187.4964801302808</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4964801302808</v>
+        <v>189.028636514577</v>
       </c>
       <c r="Y30" t="n">
-        <v>187.4964801302808</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6679,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>350.2064472052342</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C33" t="n">
-        <v>350.2064472052342</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D33" t="n">
-        <v>350.2064472052342</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E33" t="n">
-        <v>256.869462878957</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>110.334904905842</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,16 +6785,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>178.8501590306595</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>417.4543050195419</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>518.4217842253022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>518.4217842253022</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y33" t="n">
-        <v>518.4217842253022</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>168.215552771464</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C36" t="n">
-        <v>168.215552771464</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7017,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>611.2191612087395</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>611.2191612087395</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>376.0670529769968</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W36" t="n">
-        <v>376.0670529769968</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X36" t="n">
-        <v>168.215552771464</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y36" t="n">
-        <v>168.215552771464</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="37">
@@ -7111,19 +7113,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7211,13 +7213,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>461.2466632505798</v>
+        <v>279.432186667424</v>
       </c>
       <c r="C39" t="n">
-        <v>286.7936339694528</v>
+        <v>104.979157386297</v>
       </c>
       <c r="D39" t="n">
-        <v>268.8182272585117</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7281,22 +7283,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>461.2466632505798</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>461.2466632505798</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>461.2466632505798</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>461.2466632505798</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y39" t="n">
-        <v>461.2466632505798</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>877.0247885897328</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>142.2888212580996</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>345.7514872519972</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>648.6540332037905</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>566.7035761171468</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>566.7035761171468</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="V42" t="n">
-        <v>566.7035761171468</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="W42" t="n">
-        <v>566.7035761171468</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="X42" t="n">
-        <v>566.7035761171468</v>
+        <v>612.718391167419</v>
       </c>
       <c r="Y42" t="n">
-        <v>359.1097938562575</v>
+        <v>612.718391167419</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>431.628992076841</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>431.628992076841</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>345.09272902505</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C45" t="n">
-        <v>345.09272902505</v>
+        <v>520.918188268317</v>
       </c>
       <c r="D45" t="n">
-        <v>196.1583193637987</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E45" t="n">
-        <v>196.1583193637987</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F45" t="n">
-        <v>49.62376139068371</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G45" t="n">
-        <v>49.62376139068371</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>49.62376139068371</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>570.0333416264414</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>720.9018483060073</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>513.308066045118</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>513.308066045118</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>152.7075060082595</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>143.091025904242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,19 +8458,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>383.7408211888696</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>134.4691888741278</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>290.7443071551351</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8933,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9009,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,16 +9254,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9732,7 +9734,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10440,10 +10442,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11063,19 +11065,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>265.6729592778915</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>279.489774794024</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23267,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>237.8052177150866</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23349,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>47.89739788443234</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23385,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>112.7505148429297</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>344.0891364002832</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,16 +23630,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>43.16495137196441</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23738,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>335.8613673013232</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23795,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="18">
@@ -23811,13 +23813,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23865,19 +23867,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>198.4973048242362</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23929,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>113.6687527430239</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>135.4421949581581</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>29.41897557874998</v>
       </c>
       <c r="W21" t="n">
-        <v>128.3267508830167</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>255.0550143366059</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24254,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>25.51171028787192</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24348,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>189.1474515333243</v>
       </c>
     </row>
     <row r="25">
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24494,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24531,7 +24533,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>125.9508977117618</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>180.9337498050905</v>
       </c>
     </row>
     <row r="28">
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24652,10 +24654,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24731,22 +24733,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24807,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>170.1663362833846</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24825,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>195.2777577623847</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24962,10 +24964,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>136.955583073971</v>
+        <v>254.830481723707</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>46.32716769143885</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25002,22 +25004,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>65.24146597238656</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25056,10 +25058,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,10 +25219,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>92.97244319957487</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>22.53828543978165</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25351,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25360,13 +25362,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,10 +25408,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25451,13 +25453,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="39">
@@ -25473,10 +25475,10 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>129.6494129208071</v>
+        <v>62.60403143131535</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25488,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25521,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,7 +25535,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25591,13 +25593,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25631,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25673,22 +25675,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>42.075732182894</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25755,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>119.0337761790443</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>83.88899058466725</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25804,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25910,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,16 +25921,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>220.1946534677489</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,28 +25946,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>141.5483939459461</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>57.29271368040787</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26004,10 +26006,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26074,10 +26076,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>890558.7988628977</v>
+        <v>888723.0659828359</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>890558.7988628977</v>
+        <v>890987.4811757434</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>890558.7988628977</v>
+        <v>890987.4811757434</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>347117.826203896</v>
+        <v>365613.0245140032</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>347117.826203896</v>
+        <v>365613.0245140032</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365613.0245140032</v>
+        <v>365613.0245140034</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>365613.0245140032</v>
+        <v>365613.0245140034</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>365613.0245140033</v>
+        <v>365613.0245140034</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>365613.0245140034</v>
+        <v>365613.0245140032</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>365613.0245140034</v>
+        <v>365613.0245140032</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>347117.826203896</v>
+        <v>365613.0245140031</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>347117.826203896</v>
+        <v>365613.0245140032</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>212972.8164771577</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="F2" t="n">
-        <v>212972.8164771577</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="G2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="H2" t="n">
         <v>224316.9079172986</v>
@@ -26338,22 +26340,22 @@
         <v>224316.9079172986</v>
       </c>
       <c r="K2" t="n">
+        <v>224316.9079172987</v>
+      </c>
+      <c r="L2" t="n">
         <v>224316.9079172986</v>
       </c>
-      <c r="L2" t="n">
-        <v>224316.9079172987</v>
-      </c>
       <c r="M2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="N2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="O2" t="n">
-        <v>212972.8164771577</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="P2" t="n">
-        <v>212972.8164771577</v>
+        <v>224316.9079172986</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296630.5819651741</v>
+        <v>335761.7110049645</v>
       </c>
       <c r="C4" t="n">
-        <v>296630.5819651741</v>
+        <v>287492.6387038018</v>
       </c>
       <c r="D4" t="n">
-        <v>296630.5819651741</v>
+        <v>287492.6387038018</v>
       </c>
       <c r="E4" t="n">
-        <v>8092.707817725995</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725995</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
@@ -26442,7 +26444,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
@@ -26454,10 +26456,10 @@
         <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>8092.707817725994</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725995</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142575.77116968</v>
+        <v>163627.0426302207</v>
       </c>
       <c r="C6" t="n">
-        <v>211449.5277513697</v>
+        <v>157852.9650041595</v>
       </c>
       <c r="D6" t="n">
-        <v>211449.5277513699</v>
+        <v>218429.287190828</v>
       </c>
       <c r="E6" t="n">
-        <v>192384.6237175843</v>
+        <v>201116.1280841945</v>
       </c>
       <c r="F6" t="n">
-        <v>192384.6237175842</v>
+        <v>201116.1280841946</v>
       </c>
       <c r="G6" t="n">
-        <v>191387.0851100275</v>
+        <v>201116.1280841946</v>
       </c>
       <c r="H6" t="n">
         <v>201116.1280841946</v>
       </c>
       <c r="I6" t="n">
-        <v>201116.1280841946</v>
+        <v>201116.1280841945</v>
       </c>
       <c r="J6" t="n">
-        <v>147343.6171939851</v>
+        <v>187114.8959439152</v>
       </c>
       <c r="K6" t="n">
+        <v>152859.175150562</v>
+      </c>
+      <c r="L6" t="n">
         <v>201116.1280841945</v>
-      </c>
-      <c r="L6" t="n">
-        <v>201116.1280841946</v>
       </c>
       <c r="M6" t="n">
         <v>201116.1280841946</v>
       </c>
       <c r="N6" t="n">
-        <v>201116.1280841945</v>
+        <v>201116.1280841946</v>
       </c>
       <c r="O6" t="n">
-        <v>192384.6237175843</v>
+        <v>201116.1280841946</v>
       </c>
       <c r="P6" t="n">
-        <v>192384.6237175843</v>
+        <v>201116.1280841946</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>180.394673303687</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27436,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>307.8704497879187</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,22 +27466,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>110.5112449034372</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
-        <v>14.15426883260406</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27521,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27558,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27579,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>49.05569651810566</v>
+        <v>62.72157442133235</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>185.6122135940581</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27664,7 +27666,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>30.86275655426235</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27676,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>92.46572744736817</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>123.8600405104216</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27828,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27862,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>318.3145018902242</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -27895,13 +27897,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>251.6582601192213</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27953,7 +27955,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>136.9980265978828</v>
+        <v>100.4169029901996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28050,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.72573192223796</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0.494781459797586</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35176,19 +35178,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>147.9744062188824</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0.494781459797586</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,13 +35655,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35729,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35972,16 +35974,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36452,7 +36454,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36674,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37160,10 +37162,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37786,16 +37788,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>127.1185794980173</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>148.1480627106907</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1596198.615699284</v>
+        <v>1527347.319257847</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5741644.353391612</v>
+        <v>5741644.353391611</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>53.51252900994975</v>
+        <v>9.891109467671336</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>19.88180868221617</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>47.13383555196375</v>
       </c>
       <c r="E3" t="n">
-        <v>47.13383555196375</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,41 +755,41 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>26.16190956546853</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>53.51252900994975</v>
@@ -898,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="G5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>178.157313031983</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>60.55157021971456</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1186,19 +1186,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>118.0728405592477</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>13.96123251198331</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>151.27808017072</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1338,7 +1338,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1448,25 +1448,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>98.10479885422595</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>64.33804635206413</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,13 +1508,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,61 +1621,61 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>50.46697834767978</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T14" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>162.6080338315131</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>27.44407725673862</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>234.288905720311</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V21" t="n">
-        <v>203.3816115706753</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.53524424398009</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="25">
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>24.74894597221386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>130.4655268502615</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>202.2946864288972</v>
-      </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>195.5062481768263</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.40493801491967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>120.2060159584285</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>94.41048699370604</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3395,22 +3395,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>84.8410341333234</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>82.69355372315674</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3644,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
-        <v>80.33470701582003</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3875,13 +3875,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>142.0523914963076</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3918,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,73 +3976,73 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R44" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S44" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T44" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>31.16010504236965</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139.9144214012476</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
-        <v>139.9144214012476</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>139.9144214012476</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>139.9144214012476</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>85.86136179523773</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
@@ -4339,10 +4339,10 @@
         <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
         <v>161.0727123199487</v>
@@ -4351,31 +4351,31 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>139.9144214012476</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="W2" t="n">
-        <v>139.9144214012476</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="X2" t="n">
-        <v>139.9144214012476</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>139.9144214012476</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4391,16 +4391,16 @@
         <v>105.9439968277793</v>
       </c>
       <c r="D3" t="n">
-        <v>105.9439968277793</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G3" t="n">
-        <v>58.33406192680583</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H3" t="n">
         <v>4.28100232079598</v>
@@ -4412,19 +4412,19 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M3" t="n">
+        <v>55.11790488024824</v>
+      </c>
+      <c r="N3" t="n">
+        <v>55.11790488024824</v>
+      </c>
+      <c r="O3" t="n">
         <v>108.0953086000985</v>
-      </c>
-      <c r="N3" t="n">
-        <v>161.0727123199487</v>
-      </c>
-      <c r="O3" t="n">
-        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4436,19 +4436,19 @@
         <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
         <v>159.9970564337892</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="C4" t="n">
         <v>4.28100232079598</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>84.76023320505688</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>84.76023320505688</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.6514970160482</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D5" t="n">
-        <v>297.2027203719481</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>784.1002736601483</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T5" t="n">
-        <v>784.1002736601483</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U5" t="n">
-        <v>784.1002736601483</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V5" t="n">
-        <v>784.1002736601483</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W5" t="n">
-        <v>540.6514970160482</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X5" t="n">
-        <v>540.6514970160482</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y5" t="n">
-        <v>540.6514970160482</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>492.48569440222</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>318.0326651210929</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>318.0326651210929</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>256.869462878957</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4649,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>482.2773291604919</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>482.2773291604919</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>482.2773291604919</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>482.2773291604919</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748836</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X8" t="n">
-        <v>482.2773291604919</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y8" t="n">
-        <v>482.2773291604919</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>579.5529687867247</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>430.6185591254734</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="10">
@@ -4986,19 +4986,19 @@
         <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="H11" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="I11" t="n">
         <v>19.28114311021272</v>
@@ -5068,25 +5068,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W11" t="n">
-        <v>495.259035872464</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>222.9998941357428</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="C12" t="n">
-        <v>222.9998941357428</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="D12" t="n">
-        <v>222.9998941357428</v>
+        <v>118.3768995286228</v>
       </c>
       <c r="E12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>84.26906871835831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5126,10 +5126,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
         <v>473.4149733950735</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V12" t="n">
-        <v>634.6640077999109</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W12" t="n">
-        <v>391.2152311558108</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X12" t="n">
-        <v>391.2152311558108</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y12" t="n">
-        <v>391.2152311558108</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="13">
@@ -5229,13 +5229,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>284.1276524520142</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>82.32787816303323</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T14" t="n">
-        <v>527.5764290961142</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U14" t="n">
-        <v>527.5764290961142</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V14" t="n">
-        <v>527.5764290961142</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W14" t="n">
-        <v>284.1276524520142</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X14" t="n">
-        <v>284.1276524520142</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y14" t="n">
-        <v>284.1276524520142</v>
+        <v>325.7766548071333</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>168.215552771464</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="C15" t="n">
-        <v>168.215552771464</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="D15" t="n">
         <v>19.28114311021272</v>
@@ -5363,16 +5363,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5399,10 +5399,10 @@
         <v>500.6814290152826</v>
       </c>
       <c r="X15" t="n">
-        <v>336.430889791532</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y15" t="n">
-        <v>336.430889791532</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="16">
@@ -5460,19 +5460,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U17" t="n">
-        <v>591.4512093066566</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V17" t="n">
-        <v>591.4512093066566</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W17" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>352.9716273967953</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C18" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
         <v>19.28114311021272</v>
@@ -5597,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>560.7319261617492</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="V18" t="n">
-        <v>560.7319261617492</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="W18" t="n">
-        <v>560.7319261617492</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X18" t="n">
-        <v>560.7319261617492</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y18" t="n">
-        <v>352.9716273967953</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="19">
@@ -5700,22 +5700,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
         <v>262.7299197543128</v>
@@ -5743,7 +5743,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="21">
@@ -5834,43 +5834,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>432.4774131586771</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V21" t="n">
-        <v>227.0414418751666</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>227.0414418751666</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
         <v>227.0414418751666</v>
@@ -5931,16 +5931,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>348.0024326625565</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C23" t="n">
-        <v>348.0024326625565</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D23" t="n">
-        <v>348.0024326625565</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E23" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V23" t="n">
-        <v>348.0024326625565</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W23" t="n">
-        <v>348.0024326625565</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X23" t="n">
-        <v>348.0024326625565</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y23" t="n">
-        <v>348.0024326625565</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="24">
@@ -6071,46 +6071,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>243.8349102288568</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>35.98341002332393</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y24" t="n">
         <v>19.28114311021272</v>
@@ -6168,19 +6168,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6250,19 +6250,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U26" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
         <v>262.7299197543128</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V27" t="n">
-        <v>252.1315786412141</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W27" t="n">
-        <v>252.1315786412141</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X27" t="n">
-        <v>44.28007843568128</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6402,19 +6402,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>178.5185981156682</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6551,16 +6551,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>726.4525409563269</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>432.4774131586771</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>432.4774131586771</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W30" t="n">
-        <v>189.028636514577</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X30" t="n">
-        <v>189.028636514577</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.5185981156682</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6645,19 +6645,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X33" t="n">
-        <v>279.432186667424</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>279.432186667424</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6879,22 +6879,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="U35" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U35" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>259.0600686093459</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7128,10 +7128,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>279.432186667424</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>104.979157386297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7256,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>880.5283133660334</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>279.432186667424</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>279.432186667424</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7359,10 +7359,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
         <v>19.28114311021272</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.8760884571613</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C41" t="n">
-        <v>343.8760884571613</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>251.810259228364</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>587.3248651012614</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U41" t="n">
-        <v>587.3248651012614</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V41" t="n">
-        <v>343.8760884571613</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8760884571613</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X41" t="n">
-        <v>343.8760884571613</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.8760884571613</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>612.718391167419</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C42" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7496,19 +7496,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7523,19 +7523,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>820.5698913729518</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>820.5698913729518</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W42" t="n">
-        <v>820.5698913729518</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X42" t="n">
-        <v>612.718391167419</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y42" t="n">
-        <v>612.718391167419</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>552.3930418464681</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C45" t="n">
-        <v>520.918188268317</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>520.918188268317</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
         <v>19.28114311021272</v>
@@ -7736,13 +7736,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7760,19 +7760,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.6083788665362</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
         <v>19.28114311021272</v>
@@ -7839,19 +7839,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7987,13 +7987,13 @@
         <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>284.7455247652193</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>189.1918456000683</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8218,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9011,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M15" t="n">
-        <v>255.5148970497678</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
@@ -9023,7 +9023,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8835549304717</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11144,7 +11144,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11153,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23308,13 +23308,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23336,25 +23336,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>59.540281601175</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>47.89739788443234</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23396,13 +23396,13 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>344.0891364002832</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,16 +23509,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>289.0078237680873</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>82.31446349940144</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23639,10 +23639,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>43.16495137196441</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>328.0572133466886</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>301.8181508768923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23819,7 +23819,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23861,13 +23861,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>198.4973048242362</v>
+        <v>41.31049342352063</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23876,7 +23876,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>135.4421949581581</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V21" t="n">
-        <v>29.41897557874998</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>255.0550143366059</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.1474515333243</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="25">
@@ -24408,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24423,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>107.53913272771</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>180.9337498050905</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24642,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>155.8535025062293</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>204.5813593128142</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>257.4082506688596</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24761,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24812,13 +24812,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>37.29433897259892</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>195.2777577623847</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24919,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24964,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>254.830481723707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>46.32716769143885</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25131,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25201,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>128.6853625704253</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25235,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>92.97244319957487</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25283,22 +25283,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>70.3588251877606</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25368,13 +25368,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25456,10 +25456,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,10 +25472,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>62.60403143131535</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>88.98961738068108</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25532,13 +25532,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25599,13 +25599,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25630,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>274.3483346048629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>109.2709771587974</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25675,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25687,7 +25687,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25709,19 +25709,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25763,13 +25763,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>83.88899058466725</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25806,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25909,28 +25909,28 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>141.5483939459461</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -26000,16 +26000,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>365613.0245140034</v>
+        <v>365613.0245140032</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>365613.0245140034</v>
+        <v>365613.0245140032</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>365613.0245140032</v>
+        <v>365613.0245140031</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>365613.0245140034</v>
+        <v>365613.0245140032</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>365613.0245140032</v>
+        <v>365613.0245140031</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>365613.0245140031</v>
+        <v>365613.0245140032</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>365613.0245140032</v>
+        <v>365613.0245140031</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
         <v>224316.9079172986</v>
@@ -26328,7 +26328,7 @@
         <v>224316.9079172986</v>
       </c>
       <c r="G2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="H2" t="n">
         <v>224316.9079172986</v>
@@ -26349,13 +26349,13 @@
         <v>224316.9079172986</v>
       </c>
       <c r="N2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="O2" t="n">
         <v>224316.9079172987</v>
       </c>
       <c r="P2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163627.0426302207</v>
+        <v>163627.0426302204</v>
       </c>
       <c r="C6" t="n">
-        <v>157852.9650041595</v>
+        <v>157852.9650041598</v>
       </c>
       <c r="D6" t="n">
-        <v>218429.287190828</v>
+        <v>218429.2871908278</v>
       </c>
       <c r="E6" t="n">
-        <v>201116.1280841945</v>
+        <v>188898.1174641541</v>
       </c>
       <c r="F6" t="n">
-        <v>201116.1280841946</v>
+        <v>188898.1174641541</v>
       </c>
       <c r="G6" t="n">
-        <v>201116.1280841946</v>
+        <v>188898.1174641541</v>
       </c>
       <c r="H6" t="n">
-        <v>201116.1280841946</v>
+        <v>188898.1174641541</v>
       </c>
       <c r="I6" t="n">
-        <v>201116.1280841945</v>
+        <v>188898.1174641541</v>
       </c>
       <c r="J6" t="n">
-        <v>187114.8959439152</v>
+        <v>174896.8853238748</v>
       </c>
       <c r="K6" t="n">
-        <v>152859.175150562</v>
+        <v>140641.1645305215</v>
       </c>
       <c r="L6" t="n">
-        <v>201116.1280841945</v>
+        <v>188898.1174641541</v>
       </c>
       <c r="M6" t="n">
-        <v>201116.1280841946</v>
+        <v>188898.1174641541</v>
       </c>
       <c r="N6" t="n">
-        <v>201116.1280841946</v>
+        <v>188898.1174641541</v>
       </c>
       <c r="O6" t="n">
-        <v>201116.1280841946</v>
+        <v>188898.1174641541</v>
       </c>
       <c r="P6" t="n">
-        <v>201116.1280841946</v>
+        <v>188898.1174641541</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>329.2213126535308</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>353.3635167317617</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>307.8704497879187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27463,10 +27463,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>100.311230012675</v>
       </c>
       <c r="E3" t="n">
-        <v>110.5112449034372</v>
+        <v>104.1325514454512</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27508,7 +27508,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>118.1706420938881</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>141.0849115331593</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>62.72157442133235</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>233.0104693266412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>172.1971263790874</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,19 +27627,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>30.86275655426235</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>97.09351023568638</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,7 +27748,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>123.8600405104216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>123.6874957598916</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>314.5236871822507</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>251.6582601192213</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>158.7472664763324</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>100.4169029901996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34707,13 +34707,13 @@
         <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>53.51252900994975</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>51.35040662570935</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>53.51252900994975</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35181,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35257,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35731,10 +35731,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M15" t="n">
-        <v>113.3808631277495</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
@@ -35743,7 +35743,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36214,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,19 +36919,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37873,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N45" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
